--- a/接口文档/文件上传api/文件上传api.xlsx
+++ b/接口文档/文件上传api/文件上传api.xlsx
@@ -10,13 +10,14 @@
     <sheet name="封面" sheetId="1" r:id="rId1"/>
     <sheet name="首页API目录" sheetId="2" r:id="rId2"/>
     <sheet name="文件上传" sheetId="3" r:id="rId3"/>
+    <sheet name="头像上传" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
   <si>
     <t>功能说明：</t>
   </si>
@@ -119,10 +120,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>/api/fileupload/v1/upload</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>code</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -168,6 +165,26 @@
   </si>
   <si>
     <t>0-默认 1-商品详情的json文件 2-商品发布图片3-商户logo 4-首页模板图片</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片的名称（带扩展名）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-默认 1-商品详情的json文件 2-商品发布图片3-商户logo 4-首页模板图片，5-头像图片</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件字符串</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/fileupload/nologin/head/upload</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/fileupload/nologin/upload</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -387,7 +404,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -440,6 +457,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -799,186 +822,186 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="13" spans="15:22" x14ac:dyDescent="0.15">
-      <c r="O13" s="18" t="s">
+      <c r="O13" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
     </row>
     <row r="14" spans="15:22" x14ac:dyDescent="0.15">
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
     </row>
     <row r="15" spans="15:22" x14ac:dyDescent="0.15">
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
     </row>
     <row r="16" spans="15:22" x14ac:dyDescent="0.15">
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
     </row>
     <row r="17" spans="15:22" x14ac:dyDescent="0.15">
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
     </row>
     <row r="18" spans="15:22" x14ac:dyDescent="0.15">
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
     </row>
     <row r="19" spans="15:22" x14ac:dyDescent="0.15">
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
     </row>
     <row r="20" spans="15:22" x14ac:dyDescent="0.15">
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
     </row>
     <row r="21" spans="15:22" x14ac:dyDescent="0.15">
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
     </row>
     <row r="22" spans="15:22" x14ac:dyDescent="0.15">
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
     </row>
     <row r="23" spans="15:22" x14ac:dyDescent="0.15">
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
     </row>
     <row r="24" spans="15:22" x14ac:dyDescent="0.15">
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
     </row>
     <row r="25" spans="15:22" x14ac:dyDescent="0.15">
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
     </row>
     <row r="26" spans="15:22" x14ac:dyDescent="0.15">
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
     </row>
     <row r="27" spans="15:22" x14ac:dyDescent="0.15">
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
     </row>
     <row r="28" spans="15:22" x14ac:dyDescent="0.15">
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
     </row>
     <row r="29" spans="15:22" x14ac:dyDescent="0.15">
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
     </row>
     <row r="30" spans="15:22" x14ac:dyDescent="0.15">
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1128,7 +1151,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1142,12 +1165,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="16" t="s">
         <v>1</v>
       </c>
@@ -1156,26 +1179,26 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1192,7 +1215,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
@@ -1203,7 +1226,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -1237,18 +1260,18 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1259,7 +1282,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1270,64 +1293,64 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="24"/>
+      <c r="B15" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="14" t="s">
         <v>20</v>
       </c>
@@ -1336,11 +1359,11 @@
         <v>24</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="15" t="s">
         <v>22</v>
       </c>
@@ -1349,11 +1372,11 @@
         <v>24</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1377,4 +1400,260 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="68.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="22"/>
+      <c r="B5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="24"/>
+      <c r="B11" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="24"/>
+      <c r="B13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="24"/>
+      <c r="B14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="24"/>
+      <c r="B15" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="24"/>
+      <c r="B16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="24"/>
+      <c r="B17" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A8:A18"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B15:E15"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F1" location="首页API目录!A1" display="返回目录"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/接口文档/文件上传api/文件上传api.xlsx
+++ b/接口文档/文件上传api/文件上传api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -168,10 +168,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>图片的名称（带扩展名）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>0-默认 1-商品详情的json文件 2-商品发布图片3-商户logo 4-首页模板图片，5-头像图片</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -185,6 +181,10 @@
   </si>
   <si>
     <t>/api/fileupload/nologin/upload</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1150,7 +1150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
@@ -1180,7 +1180,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -1406,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1436,7 +1436,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -1482,7 +1482,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -1497,7 +1497,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -1512,7 +1512,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
